--- a/Resultados/Material/ResNet/Tentativa 2.xlsx
+++ b/Resultados/Material/ResNet/Tentativa 2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\Material\ResNet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250A81E0-D32B-42F9-AB50-FABE16E96F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D5D409-3CC7-4E87-B653-7621A3A895F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
@@ -185,6 +185,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -243,7 +246,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +274,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,7 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -493,6 +502,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -517,20 +533,102 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -605,94 +703,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -817,16 +827,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>491067</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>107949</xdr:rowOff>
+      <xdr:rowOff>119943</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2954DDDC-22E4-71AE-3DF3-A279E963DAEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6952B4A5-950F-43F1-E548-FDE2E06B35C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -872,16 +882,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>87311</xdr:rowOff>
+      <xdr:rowOff>179916</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EDCE2CE-F197-F33F-086C-68E12AF66C06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7317648-E1C7-D7D6-96BD-E163A5FF756D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -936,7 +946,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38887C69-03A8-4D81-F4F0-020489C6AC1F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BCE7AA7-2449-B897-F7DE-0E8E19DC9DE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -991,7 +1001,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E616ED00-14DE-545D-0149-E053EC4F1992}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD617D64-20AC-8411-35E4-0B7402F134E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1046,7 +1056,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{298C3773-E0CF-EFDB-96B6-B64D966803CD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DBBE2CB-D4D8-39B6-554B-02E4E996E938}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1101,7 +1111,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{013D0150-DAB7-341D-9C30-3FBF7E21CA20}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{104E390A-1099-C799-7703-622DF8B8D402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1147,16 +1157,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>116678</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B9453D0-C08C-C719-CF22-02986E9C0DD8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAC3061C-61DF-4098-4C26-B5B36BA77560}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1164,7 +1174,7 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -1172,13 +1182,14 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect r="39379"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7874000" cy="3247228"/>
+          <a:ext cx="7772400" cy="2590800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1195,23 +1206,23 @@
   <autoFilter ref="A1:J4" xr:uid="{05CD79ED-E271-418B-AE5D-0CEC67D117D8}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{0BC8D92E-F05A-4765-ADE7-158957752698}" name="Classe" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{158B1DC5-8A42-4E97-A9C4-3F00630EA162}" name="Accuracy" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{C65D27B5-BF2B-480F-9245-88EBC462C418}" name="Precision" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{2F039AB7-CAFE-4D33-8E3F-DDB0554402B9}" name="Recall" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{E8A788D3-B0FB-4153-AC29-EB77EB842308}" name="F1 Score" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{76122F43-3076-419C-936F-1BAB3AB79795}" name="Qtd" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{158B1DC5-8A42-4E97-A9C4-3F00630EA162}" name="Accuracy" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{C65D27B5-BF2B-480F-9245-88EBC462C418}" name="Precision" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{2F039AB7-CAFE-4D33-8E3F-DDB0554402B9}" name="Recall" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{E8A788D3-B0FB-4153-AC29-EB77EB842308}" name="F1 Score" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{76122F43-3076-419C-936F-1BAB3AB79795}" name="Qtd" dataDxfId="8">
       <calculatedColumnFormula>'Matriz Confusão 2'!F3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{ED69C583-BA02-4717-B168-089B7EA09073}" name="Exatidão" dataDxfId="3">
+    <tableColumn id="7" xr3:uid="{ED69C583-BA02-4717-B168-089B7EA09073}" name="Exatidão" dataDxfId="7">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(B2&lt;=1,B2&gt;=0.95),"Muito Alta",AND(B2&lt;0.95,B2&gt;=0.9),"Alta",AND(B2&lt;0.9,B2&gt;=0.7),"Boa",AND(B2&lt;0.7,B2&gt;=0.5),"Médio",AND(B2&lt;0.5,B2&gt;=0.25),"Baixo",AND(B2&lt;0.25,B2&gt;0),"Muito Baixo",B2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{52506CAA-318D-400D-AA3D-9DD38E4BE67E}" name="Precisão" dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{52506CAA-318D-400D-AA3D-9DD38E4BE67E}" name="Precisão" dataDxfId="6">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(C2&lt;=1,C2&gt;=0.95),"Muito Alta",AND(C2&lt;0.95,C2&gt;=0.9),"Alta",AND(C2&lt;0.9,C2&gt;=0.7),"Boa",AND(C2&lt;0.7,C2&gt;=0.5),"Médio",AND(C2&lt;0.5,C2&gt;=0.25),"Baixo",AND(C2&lt;0.25,C2&gt;0),"Muito Baixo",C2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{80EB9D07-1FE1-4C36-89EB-4BFB293D3A96}" name="Recuperação" dataDxfId="1">
+    <tableColumn id="9" xr3:uid="{80EB9D07-1FE1-4C36-89EB-4BFB293D3A96}" name="Recuperação" dataDxfId="5">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(D2&lt;=1,D2&gt;=0.95),"Muito Alta",AND(D2&lt;0.95,D2&gt;=0.9),"Alta",AND(D2&lt;0.9,D2&gt;=0.7),"Boa",AND(D2&lt;0.7,D2&gt;=0.5),"Médio",AND(D2&lt;0.5,D2&gt;=0.25),"Baixo",AND(D2&lt;0.25,D2&gt;0),"Muito Baixo",D2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3B26B576-C152-418D-BC1D-A627F1BEAA9C}" name="F1" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{3B26B576-C152-418D-BC1D-A627F1BEAA9C}" name="F1" dataDxfId="4">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(E2&lt;=1,E2&gt;=0.95),"Muito Alta",AND(E2&lt;0.95,E2&gt;=0.9),"Alta",AND(E2&lt;0.9,E2&gt;=0.7),"Boa",AND(E2&lt;0.7,E2&gt;=0.5),"Médio",AND(E2&lt;0.5,E2&gt;=0.25),"Baixo",AND(E2&lt;0.25,E2&gt;0),"Muito Baixo",E2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1540,7 +1551,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1570,17 +1581,17 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="51">
-        <v>3.8210563659667969</v>
-      </c>
-      <c r="C2" s="50">
-        <v>0.91542482376098633</v>
-      </c>
-      <c r="D2" s="2">
-        <v>6.3564133644104004</v>
-      </c>
-      <c r="E2" s="50">
-        <v>0.74728679656982422</v>
+      <c r="B2" s="53">
+        <v>0.36970734596252441</v>
+      </c>
+      <c r="C2" s="54">
+        <v>0.94348752498626709</v>
+      </c>
+      <c r="D2" s="53">
+        <v>0.21402959525585169</v>
+      </c>
+      <c r="E2" s="54">
+        <v>0.93953490257263184</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1588,16 +1599,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>2.584169864654541</v>
+        <v>0.17031741142272949</v>
       </c>
       <c r="C3" s="2">
-        <v>0.93574607372283936</v>
-      </c>
-      <c r="D3" s="50">
-        <v>2.498977899551392</v>
+        <v>0.94987422227859497</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.14651200175285339</v>
       </c>
       <c r="E3" s="2">
-        <v>0.93798446655273438</v>
+        <v>0.94573640823364258</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -1605,16 +1616,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>2.811470746994019</v>
+        <v>0.14243344962596891</v>
       </c>
       <c r="C4" s="2">
-        <v>0.93826204538345337</v>
+        <v>0.95297080278396606</v>
       </c>
       <c r="D4" s="2">
-        <v>6.339726448059082</v>
+        <v>0.1466262489557266</v>
       </c>
       <c r="E4" s="2">
-        <v>0.83720928430557251</v>
+        <v>0.9519379734992981</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1622,16 +1633,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>2.8622090816497798</v>
+        <v>0.16796277463436129</v>
       </c>
       <c r="C5" s="2">
-        <v>0.94116508960723877</v>
+        <v>0.9554867148399353</v>
       </c>
       <c r="D5" s="2">
-        <v>3.8186357021331792</v>
+        <v>0.17481246590614319</v>
       </c>
       <c r="E5" s="2">
-        <v>0.91162788867950439</v>
+        <v>0.94418603181838989</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1639,16 +1650,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>3.0335664749145508</v>
+        <v>0.12312716245651251</v>
       </c>
       <c r="C6" s="2">
-        <v>0.93884265422821045</v>
-      </c>
-      <c r="D6" s="51">
-        <v>10.295591354370121</v>
+        <v>0.95684146881103516</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.1454352289438248</v>
       </c>
       <c r="E6" s="2">
-        <v>0.78294575214385986</v>
+        <v>0.95503878593444824</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -1656,16 +1667,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>3.521720170974731</v>
+        <v>0.1218240484595299</v>
       </c>
       <c r="C7" s="2">
-        <v>0.9401974081993103</v>
+        <v>0.95819622278213501</v>
       </c>
       <c r="D7" s="2">
-        <v>5.773613452911377</v>
+        <v>0.1320158839225769</v>
       </c>
       <c r="E7" s="2">
-        <v>0.81550389528274536</v>
+        <v>0.95038759708404541</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1673,16 +1684,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>2.6580922603607182</v>
+        <v>9.8470486700534821E-2</v>
       </c>
       <c r="C8" s="2">
-        <v>0.94716471433639526</v>
+        <v>0.96380877494812012</v>
       </c>
       <c r="D8" s="2">
-        <v>5.1738357543945313</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.85581398010253906</v>
+        <v>0.12727019190788269</v>
+      </c>
+      <c r="E8" s="53">
+        <v>0.9596899151802063</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1690,73 +1701,73 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>2.6539485454559331</v>
+        <v>8.9918568730354309E-2</v>
       </c>
       <c r="C9" s="2">
-        <v>0.94871300458908081</v>
+        <v>0.96884071826934814</v>
       </c>
       <c r="D9" s="2">
-        <v>5.4833159446716309</v>
+        <v>0.18464852869510651</v>
       </c>
       <c r="E9" s="2">
-        <v>0.8868216872215271</v>
+        <v>0.94883722066879272</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
-        <v>2.8495750427246089</v>
+      <c r="B10" s="54">
+        <v>7.9352341592311859E-2</v>
       </c>
       <c r="C10" s="2">
-        <v>0.95142251253128052</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3.2972557544708252</v>
-      </c>
-      <c r="E10" s="51">
-        <v>0.94573640823364258</v>
+        <v>0.97058254480361938</v>
+      </c>
+      <c r="D10" s="54">
+        <v>0.1194941774010658</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.95348834991455078</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="50">
-        <v>2.249397754669189</v>
-      </c>
-      <c r="C11" s="51">
-        <v>0.95335787534713745</v>
+      <c r="B11" s="2">
+        <v>8.882392942905426E-2</v>
+      </c>
+      <c r="C11" s="53">
+        <v>0.97367912530899048</v>
       </c>
       <c r="D11" s="2">
-        <v>3.918654203414917</v>
+        <v>0.12614977359771731</v>
       </c>
       <c r="E11" s="2">
-        <v>0.92403101921081543</v>
+        <v>0.9596899151802063</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="42">
-        <v>3.29969930648803</v>
-      </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
+      <c r="B12" s="45">
+        <v>0.13870543241500799</v>
+      </c>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="42">
-        <v>0.92581140995025601</v>
-      </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
+      <c r="B13" s="45">
+        <v>0.95981454849243097</v>
+      </c>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
@@ -1764,19 +1775,19 @@
       </c>
       <c r="B14" s="5">
         <f>MIN(B2:B11)</f>
-        <v>2.249397754669189</v>
+        <v>7.9352341592311859E-2</v>
       </c>
       <c r="C14" s="5">
         <f>MIN(C2:C11)</f>
-        <v>0.91542482376098633</v>
+        <v>0.94348752498626709</v>
       </c>
       <c r="D14" s="5">
         <f>MIN(D2:D11)</f>
-        <v>2.498977899551392</v>
+        <v>0.1194941774010658</v>
       </c>
       <c r="E14" s="5">
         <f>MIN(E2:E11)</f>
-        <v>0.74728679656982422</v>
+        <v>0.93953490257263184</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -1785,19 +1796,19 @@
       </c>
       <c r="B15" s="6">
         <f>MAX(B2:B11)</f>
-        <v>3.8210563659667969</v>
+        <v>0.36970734596252441</v>
       </c>
       <c r="C15" s="6">
         <f>MAX(C2:C11)</f>
-        <v>0.95335787534713745</v>
+        <v>0.97367912530899048</v>
       </c>
       <c r="D15" s="6">
         <f>MAX(D2:D11)</f>
-        <v>10.295591354370121</v>
+        <v>0.21402959525585169</v>
       </c>
       <c r="E15" s="6">
         <f>MAX(E2:E11)</f>
-        <v>0.94573640823364258</v>
+        <v>0.9596899151802063</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -1806,7 +1817,7 @@
       </c>
       <c r="B16">
         <f>INDEX($A$2:$A$11,MATCH(B14,B2:B11,0))</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <f>INDEX($A$2:$A$11,MATCH(C14,C2:C11,0))</f>
@@ -1814,7 +1825,7 @@
       </c>
       <c r="D16">
         <f>INDEX($A$2:$A$11,MATCH(D14,D2:D11,0))</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <f>INDEX($A$2:$A$11,MATCH(E14,E2:E11,0))</f>
@@ -1835,11 +1846,11 @@
       </c>
       <c r="D17">
         <f>INDEX($A$2:$A$11,MATCH(D15,D2:D11,0))</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <f>INDEX($A$2:$A$11,MATCH(E15,E2:E11,0))</f>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1895,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="18">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="3" spans="14:15" x14ac:dyDescent="0.35">
@@ -1903,7 +1914,7 @@
         <v>1</v>
       </c>
       <c r="O3" s="18">
-        <v>0.78</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="4" spans="14:15" x14ac:dyDescent="0.35">
@@ -1911,7 +1922,7 @@
         <v>2</v>
       </c>
       <c r="O4" s="18">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="5" spans="14:15" x14ac:dyDescent="0.35">
@@ -2085,7 +2096,9 @@
   <sheetPr codeName="Folha2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
@@ -2100,7 +2113,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2113,7 +2126,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4733B8BE-9A12-402E-83C5-F44A953F201E}">
   <sheetPr codeName="Folha4"/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:F6"/>
@@ -2124,14 +2137,14 @@
     <col min="1" max="1" width="3.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C1" s="43" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C1" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C2" s="39">
         <v>0</v>
       </c>
@@ -2142,8 +2155,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="44" t="str">
+    <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="47" t="str">
         <f>"Verdadeiro"</f>
         <v>Verdadeiro</v>
       </c>
@@ -2151,69 +2164,78 @@
         <v>0</v>
       </c>
       <c r="C3" s="40">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <f>SUM(C3:E3)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="44"/>
+        <v>17</v>
+      </c>
+      <c r="H3" s="44">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="47"/>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="40">
         <v>4</v>
       </c>
       <c r="E4" s="2">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F5" si="0">SUM(C4:E4)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="44"/>
+        <v>16</v>
+      </c>
+      <c r="H4" s="44">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="47"/>
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="40">
-        <v>574</v>
+        <v>605</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
         <v>614</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H5" s="44">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:E6" si="1">SUM(D3:D5)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>579</v>
+        <v>621</v>
       </c>
       <c r="F6">
         <f>SUM(F3:F5)</f>
@@ -2238,7 +2260,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D3:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2246,7 +2268,7 @@
     <col min="1" max="1" width="8.6328125" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.6328125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.90625" style="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6328125" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.26953125" style="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.54296875" customWidth="1"/>
     <col min="7" max="7" width="6.453125" style="9" bestFit="1" customWidth="1"/>
@@ -2275,25 +2297,25 @@
       <c r="H1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
     </row>
     <row r="2" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="47" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="22">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C2" s="22">
         <v>0</v>
       </c>
       <c r="D2" s="23">
-        <f>B2/SUM(B2:B4)</f>
-        <v>0.95454545454545459</v>
+        <f>B2/SUM($B$2:$B$4)</f>
+        <v>0.70588235294117652</v>
       </c>
       <c r="E2" s="25" t="str">
         <f>VLOOKUP(C2,$G$1:$H$4,2,FALSE)</f>
@@ -2307,7 +2329,7 @@
       </c>
       <c r="J2" s="18">
         <f>B2+B6+B10</f>
-        <v>599</v>
+        <v>621</v>
       </c>
       <c r="K2" s="21" t="s">
         <v>29</v>
@@ -2317,20 +2339,20 @@
       </c>
       <c r="M2" s="30">
         <f>J2/L2</f>
-        <v>0.92581143740340033</v>
+        <v>0.95981452859350846</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="44"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="18">
         <v>1</v>
       </c>
       <c r="D3" s="41">
-        <f>B3/SUM(B2:B4)</f>
-        <v>4.5454545454545456E-2</v>
+        <f t="shared" ref="D3:D4" si="0">B3/SUM($B$2:$B$4)</f>
+        <v>0</v>
       </c>
       <c r="E3" s="26" t="str">
         <f>VLOOKUP(C3,$G$1:$H$4,2,FALSE)</f>
@@ -2345,16 +2367,16 @@
       <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="44"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4" s="18">
         <v>2</v>
       </c>
       <c r="D4" s="41">
-        <f>B4/SUM(B2:B4)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>0.29411764705882354</v>
       </c>
       <c r="E4" s="26" t="str">
         <f>VLOOKUP(C4,$G$1:$H$4,2,FALSE)</f>
@@ -2376,7 +2398,7 @@
       <c r="K5" s="9"/>
     </row>
     <row r="6" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="50" t="s">
         <v>32</v>
       </c>
       <c r="B6" s="29">
@@ -2385,9 +2407,9 @@
       <c r="C6" s="29">
         <v>1</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="23">
         <f>B6/SUM($B$6:$B$8)</f>
-        <v>0.36363636363636365</v>
+        <v>0.25</v>
       </c>
       <c r="E6" s="27" t="str">
         <f>VLOOKUP(C6,$G$1:$H$4,2,FALSE)</f>
@@ -2396,16 +2418,16 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="48"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="18">
         <v>0</v>
       </c>
-      <c r="D7" s="53">
-        <f>B7/SUM($B$6:$B$8)</f>
-        <v>0.18181818181818182</v>
+      <c r="D7" s="41">
+        <f t="shared" ref="D7:D8" si="1">B7/SUM($B$6:$B$8)</f>
+        <v>6.25E-2</v>
       </c>
       <c r="E7" s="26" t="str">
         <f>VLOOKUP(C7,$G$1:$H$4,2,FALSE)</f>
@@ -2414,16 +2436,16 @@
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="49"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="18">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C8" s="18">
         <v>2</v>
       </c>
-      <c r="D8" s="53">
-        <f>B8/SUM($B$6:$B$8)</f>
-        <v>0.45454545454545453</v>
+      <c r="D8" s="41">
+        <f t="shared" si="1"/>
+        <v>0.6875</v>
       </c>
       <c r="E8" s="26" t="str">
         <f>VLOOKUP(C8,$G$1:$H$4,2,FALSE)</f>
@@ -2437,18 +2459,18 @@
       <c r="E9" s="24"/>
     </row>
     <row r="10" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="48" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="22">
-        <v>574</v>
+        <v>605</v>
       </c>
       <c r="C10" s="22">
         <v>2</v>
       </c>
-      <c r="D10" s="52">
-        <f>B10/SUM(B10:B12)</f>
-        <v>0.93485342019543971</v>
+      <c r="D10" s="43">
+        <f>B10/SUM($B$10:$B$12)</f>
+        <v>0.98534201954397393</v>
       </c>
       <c r="E10" s="25" t="str">
         <f>VLOOKUP(C10,$G$1:$H$4,2,FALSE)</f>
@@ -2456,16 +2478,16 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="45"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="18">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C11" s="18">
         <v>0</v>
       </c>
-      <c r="D11" s="53">
-        <f>B11/SUM(B10:B12)</f>
-        <v>6.3517915309446255E-2</v>
+      <c r="D11" s="42">
+        <f t="shared" ref="D11:D12" si="2">B11/SUM($B$10:$B$12)</f>
+        <v>1.4657980456026058E-2</v>
       </c>
       <c r="E11" s="26" t="str">
         <f>VLOOKUP(C11,$G$1:$H$4,2,FALSE)</f>
@@ -2473,16 +2495,16 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="45"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="18">
         <v>1</v>
       </c>
-      <c r="D12" s="53">
-        <f>B12/SUM(B10:B12)</f>
-        <v>1.6286644951140066E-3</v>
+      <c r="D12" s="42">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="E12" s="26" t="str">
         <f>VLOOKUP(C12,$G$1:$H$4,2,FALSE)</f>
@@ -2513,7 +2535,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D11" sqref="D11"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2569,32 +2591,32 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>0.93508500772797531</v>
-      </c>
-      <c r="C2" s="50">
-        <v>0.33870967741935482</v>
-      </c>
-      <c r="D2" s="51">
-        <v>0.95454545454545459</v>
+        <v>0.97681607418856264</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.54545454545454541</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.70588235294117652</v>
       </c>
       <c r="E2" s="2">
-        <v>0.5</v>
+        <v>0.61538461538461531</v>
       </c>
       <c r="F2" s="32">
         <f>'Matriz Confusão 2'!F3</f>
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G2" s="10" t="str" cm="1">
         <f t="array" ref="G2">_xlfn.IFS(AND(B2&lt;=1,B2&gt;=0.95),"Muito Alta",AND(B2&lt;0.95,B2&gt;=0.9),"Alta",AND(B2&lt;0.9,B2&gt;=0.7),"Boa",AND(B2&lt;0.7,B2&gt;=0.5),"Médio",AND(B2&lt;0.5,B2&gt;=0.25),"Baixo",AND(B2&lt;0.25,B2&gt;0),"Muito Baixo",B2=0,"Zero")</f>
-        <v>Alta</v>
+        <v>Muito Alta</v>
       </c>
       <c r="H2" s="10" t="str" cm="1">
         <f t="array" ref="H2">_xlfn.IFS(AND(C2&lt;=1,C2&gt;=0.95),"Muito Alta",AND(C2&lt;0.95,C2&gt;=0.9),"Alta",AND(C2&lt;0.9,C2&gt;=0.7),"Boa",AND(C2&lt;0.7,C2&gt;=0.5),"Médio",AND(C2&lt;0.5,C2&gt;=0.25),"Baixo",AND(C2&lt;0.25,C2&gt;0),"Muito Baixo",C2=0,"Zero")</f>
-        <v>Baixo</v>
+        <v>Médio</v>
       </c>
       <c r="I2" s="10" t="str" cm="1">
         <f t="array" ref="I2">_xlfn.IFS(AND(D2&lt;=1,D2&gt;=0.95),"Muito Alta",AND(D2&lt;0.95,D2&gt;=0.9),"Alta",AND(D2&lt;0.9,D2&gt;=0.7),"Boa",AND(D2&lt;0.7,D2&gt;=0.5),"Médio",AND(D2&lt;0.5,D2&gt;=0.25),"Baixo",AND(D2&lt;0.25,D2&gt;0),"Muito Baixo",D2=0,"Zero")</f>
-        <v>Muito Alta</v>
+        <v>Boa</v>
       </c>
       <c r="J2" s="16" t="str" cm="1">
         <f t="array" ref="J2">_xlfn.IFS(AND(E2&lt;=1,E2&gt;=0.95),"Muito Alta",AND(E2&lt;0.95,E2&gt;=0.9),"Alta",AND(E2&lt;0.9,E2&gt;=0.7),"Boa",AND(E2&lt;0.7,E2&gt;=0.5),"Médio",AND(E2&lt;0.5,E2&gt;=0.25),"Baixo",AND(E2&lt;0.25,E2&gt;0),"Muito Baixo",E2=0,"Zero")</f>
@@ -2606,21 +2628,21 @@
       <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="51">
-        <v>0.98608964451313752</v>
+      <c r="B3" s="2">
+        <v>0.98145285935085003</v>
       </c>
       <c r="C3" s="2">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D3" s="50">
-        <v>0.36363636363636359</v>
-      </c>
-      <c r="E3" s="50">
-        <v>0.4705882352941177</v>
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.4</v>
       </c>
       <c r="F3" s="32">
         <f>'Matriz Confusão 2'!F4</f>
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G3" s="10" t="str" cm="1">
         <f t="array" ref="G3">_xlfn.IFS(AND(B3&lt;=1,B3&gt;=0.95),"Muito Alta",AND(B3&lt;0.95,B3&gt;=0.9),"Alta",AND(B3&lt;0.9,B3&gt;=0.7),"Boa",AND(B3&lt;0.7,B3&gt;=0.5),"Médio",AND(B3&lt;0.5,B3&gt;=0.25),"Baixo",AND(B3&lt;0.25,B3&gt;0),"Muito Baixo",B3=0,"Zero")</f>
@@ -2628,7 +2650,7 @@
       </c>
       <c r="H3" s="10" t="str" cm="1">
         <f t="array" ref="H3">_xlfn.IFS(AND(C3&lt;=1,C3&gt;=0.95),"Muito Alta",AND(C3&lt;0.95,C3&gt;=0.9),"Alta",AND(C3&lt;0.9,C3&gt;=0.7),"Boa",AND(C3&lt;0.7,C3&gt;=0.5),"Médio",AND(C3&lt;0.5,C3&gt;=0.25),"Baixo",AND(C3&lt;0.25,C3&gt;0),"Muito Baixo",C3=0,"Zero")</f>
-        <v>Médio</v>
+        <v>Muito Alta</v>
       </c>
       <c r="I3" s="10" t="str" cm="1">
         <f t="array" ref="I3">_xlfn.IFS(AND(D3&lt;=1,D3&gt;=0.95),"Muito Alta",AND(D3&lt;0.95,D3&gt;=0.9),"Alta",AND(D3&lt;0.9,D3&gt;=0.7),"Boa",AND(D3&lt;0.7,D3&gt;=0.5),"Médio",AND(D3&lt;0.5,D3&gt;=0.25),"Baixo",AND(D3&lt;0.25,D3&gt;0),"Muito Baixo",D3=0,"Zero")</f>
@@ -2644,17 +2666,17 @@
       <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="50">
-        <v>0.93044822256568782</v>
-      </c>
-      <c r="C4" s="51">
-        <v>0.99136442141623493</v>
+      <c r="B4" s="2">
+        <v>0.96136012364760437</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.97423510466988728</v>
       </c>
       <c r="D4" s="2">
-        <v>0.93485342019543971</v>
-      </c>
-      <c r="E4" s="51">
-        <v>0.96227996647108127</v>
+        <v>0.98534201954397393</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.97975708502024283</v>
       </c>
       <c r="F4" s="32">
         <f>'Matriz Confusão 2'!F5</f>
@@ -2662,7 +2684,7 @@
       </c>
       <c r="G4" s="10" t="str" cm="1">
         <f t="array" ref="G4">_xlfn.IFS(AND(B4&lt;=1,B4&gt;=0.95),"Muito Alta",AND(B4&lt;0.95,B4&gt;=0.9),"Alta",AND(B4&lt;0.9,B4&gt;=0.7),"Boa",AND(B4&lt;0.7,B4&gt;=0.5),"Médio",AND(B4&lt;0.5,B4&gt;=0.25),"Baixo",AND(B4&lt;0.25,B4&gt;0),"Muito Baixo",B4=0,"Zero")</f>
-        <v>Alta</v>
+        <v>Muito Alta</v>
       </c>
       <c r="H4" s="10" t="str" cm="1">
         <f t="array" ref="H4">_xlfn.IFS(AND(C4&lt;=1,C4&gt;=0.95),"Muito Alta",AND(C4&lt;0.95,C4&gt;=0.9),"Alta",AND(C4&lt;0.9,C4&gt;=0.7),"Boa",AND(C4&lt;0.7,C4&gt;=0.5),"Médio",AND(C4&lt;0.5,C4&gt;=0.25),"Baixo",AND(C4&lt;0.25,C4&gt;0),"Muito Baixo",C4=0,"Zero")</f>
@@ -2670,7 +2692,7 @@
       </c>
       <c r="I4" s="10" t="str" cm="1">
         <f t="array" ref="I4">_xlfn.IFS(AND(D4&lt;=1,D4&gt;=0.95),"Muito Alta",AND(D4&lt;0.95,D4&gt;=0.9),"Alta",AND(D4&lt;0.9,D4&gt;=0.7),"Boa",AND(D4&lt;0.7,D4&gt;=0.5),"Médio",AND(D4&lt;0.5,D4&gt;=0.25),"Baixo",AND(D4&lt;0.25,D4&gt;0),"Muito Baixo",D4=0,"Zero")</f>
-        <v>Alta</v>
+        <v>Muito Alta</v>
       </c>
       <c r="J4" s="16" t="str" cm="1">
         <f t="array" ref="J4">_xlfn.IFS(AND(E4&lt;=1,E4&gt;=0.95),"Muito Alta",AND(E4&lt;0.95,E4&gt;=0.9),"Alta",AND(E4&lt;0.9,E4&gt;=0.7),"Boa",AND(E4&lt;0.7,E4&gt;=0.5),"Médio",AND(E4&lt;0.5,E4&gt;=0.25),"Baixo",AND(E4&lt;0.25,E4&gt;0),"Muito Baixo",E4=0,"Zero")</f>
@@ -2684,27 +2706,27 @@
       </c>
       <c r="B5" s="5">
         <f>MIN(B2:B4)</f>
-        <v>0.93044822256568782</v>
+        <v>0.96136012364760437</v>
       </c>
       <c r="C5" s="5">
         <f>MIN(C2:C4)</f>
-        <v>0.33870967741935482</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="D5" s="5">
         <f>MIN(D2:D4)</f>
-        <v>0.36363636363636359</v>
+        <v>0.25</v>
       </c>
       <c r="E5" s="5">
         <f>MIN(E2:E4)</f>
-        <v>0.4705882352941177</v>
+        <v>0.4</v>
       </c>
       <c r="G5" s="9">
         <f>COUNTIF(G2:G4,$K$5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" s="9">
         <f>COUNTIF(H2:H4,$K$5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="9">
         <f>COUNTIF(I2:I4,$K$5)</f>
@@ -2724,23 +2746,23 @@
       </c>
       <c r="B6" s="6">
         <f>MAX(B2:B4)</f>
-        <v>0.98608964451313752</v>
+        <v>0.98145285935085003</v>
       </c>
       <c r="C6" s="6">
         <f>MAX(C2:C4)</f>
-        <v>0.99136442141623493</v>
+        <v>1</v>
       </c>
       <c r="D6" s="6">
         <f>MAX(D2:D4)</f>
-        <v>0.95454545454545459</v>
+        <v>0.98534201954397393</v>
       </c>
       <c r="E6" s="6">
         <f>MAX(E2:E4)</f>
-        <v>0.96227996647108127</v>
+        <v>0.97975708502024283</v>
       </c>
       <c r="G6" s="9">
         <f>COUNTIF(G2:G4,$K$6)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" s="9">
         <f>COUNTIF(H2:H4,$K$6)</f>
@@ -2748,7 +2770,7 @@
       </c>
       <c r="I6" s="9">
         <f>COUNTIF(I2:I4,$K$6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="9">
         <f>COUNTIF(J2:J4,$K$6)</f>
@@ -2788,7 +2810,7 @@
       </c>
       <c r="I7" s="9">
         <f>COUNTIF(I2:I4,$K$7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="9">
         <f>COUNTIF(J2:J4,$K$7)</f>
@@ -2808,7 +2830,7 @@
       </c>
       <c r="C8">
         <f>COUNTIF(C2:C4,"=1")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <f>COUNTIF(D2:D4,"=1")</f>
@@ -2864,7 +2886,7 @@
       </c>
       <c r="H9" s="9">
         <f>COUNTIF(H2:H4,$K$9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="9">
         <f>COUNTIF(I2:I4,$K$9)</f>
@@ -2888,11 +2910,11 @@
       </c>
       <c r="C10" s="6">
         <f>INDEX($A$2:$A$4,MATCH(C6,C2:C4,0))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="6">
         <f>INDEX($A$2:$A$4,MATCH(D6,D2:D4,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" s="6">
         <f>INDEX($A$2:$A$4,MATCH(E6,E2:E4,0))</f>

--- a/Resultados/Material/ResNet/Tentativa 2.xlsx
+++ b/Resultados/Material/ResNet/Tentativa 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\Material\ResNet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D5D409-3CC7-4E87-B653-7621A3A895F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E35BC9F-6FDB-4A5E-8C8E-9F0FBC6A6D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="10" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -393,7 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -533,102 +533,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="14">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -703,6 +613,94 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color auto="1"/>
@@ -836,7 +834,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6952B4A5-950F-43F1-E548-FDE2E06B35C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89BE4060-021F-90C4-2A5B-840B726D0143}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -891,7 +889,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7317648-E1C7-D7D6-96BD-E163A5FF756D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D1CBADC-310A-9B97-71AB-CEC2ABB0F3DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -946,7 +944,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BCE7AA7-2449-B897-F7DE-0E8E19DC9DE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3814484C-A1FB-F0E3-E268-4A1B79531083}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1001,7 +999,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD617D64-20AC-8411-35E4-0B7402F134E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96D22AA6-3F46-49BA-2773-53B3798F1FA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1056,7 +1054,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DBBE2CB-D4D8-39B6-554B-02E4E996E938}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC4EF1E8-79D6-2D64-B752-DB68FF099CFE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1111,7 +1109,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{104E390A-1099-C799-7703-622DF8B8D402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{002D9B68-0964-F4D6-EF2F-4FB366454359}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1166,7 +1164,7 @@
         <xdr:cNvPr id="3" name="Imagem 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAC3061C-61DF-4098-4C26-B5B36BA77560}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7E0FDDE-E152-5E64-7D3D-F1700C324D04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1206,23 +1204,23 @@
   <autoFilter ref="A1:J4" xr:uid="{05CD79ED-E271-418B-AE5D-0CEC67D117D8}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{0BC8D92E-F05A-4765-ADE7-158957752698}" name="Classe" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{158B1DC5-8A42-4E97-A9C4-3F00630EA162}" name="Accuracy" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{C65D27B5-BF2B-480F-9245-88EBC462C418}" name="Precision" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{2F039AB7-CAFE-4D33-8E3F-DDB0554402B9}" name="Recall" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{E8A788D3-B0FB-4153-AC29-EB77EB842308}" name="F1 Score" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{76122F43-3076-419C-936F-1BAB3AB79795}" name="Qtd" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{158B1DC5-8A42-4E97-A9C4-3F00630EA162}" name="Accuracy" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{C65D27B5-BF2B-480F-9245-88EBC462C418}" name="Precision" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{2F039AB7-CAFE-4D33-8E3F-DDB0554402B9}" name="Recall" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{E8A788D3-B0FB-4153-AC29-EB77EB842308}" name="F1 Score" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{76122F43-3076-419C-936F-1BAB3AB79795}" name="Qtd" dataDxfId="4">
       <calculatedColumnFormula>'Matriz Confusão 2'!F3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{ED69C583-BA02-4717-B168-089B7EA09073}" name="Exatidão" dataDxfId="7">
+    <tableColumn id="7" xr3:uid="{ED69C583-BA02-4717-B168-089B7EA09073}" name="Exatidão" dataDxfId="3">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(B2&lt;=1,B2&gt;=0.95),"Muito Alta",AND(B2&lt;0.95,B2&gt;=0.9),"Alta",AND(B2&lt;0.9,B2&gt;=0.7),"Boa",AND(B2&lt;0.7,B2&gt;=0.5),"Médio",AND(B2&lt;0.5,B2&gt;=0.25),"Baixo",AND(B2&lt;0.25,B2&gt;0),"Muito Baixo",B2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{52506CAA-318D-400D-AA3D-9DD38E4BE67E}" name="Precisão" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{52506CAA-318D-400D-AA3D-9DD38E4BE67E}" name="Precisão" dataDxfId="2">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(C2&lt;=1,C2&gt;=0.95),"Muito Alta",AND(C2&lt;0.95,C2&gt;=0.9),"Alta",AND(C2&lt;0.9,C2&gt;=0.7),"Boa",AND(C2&lt;0.7,C2&gt;=0.5),"Médio",AND(C2&lt;0.5,C2&gt;=0.25),"Baixo",AND(C2&lt;0.25,C2&gt;0),"Muito Baixo",C2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{80EB9D07-1FE1-4C36-89EB-4BFB293D3A96}" name="Recuperação" dataDxfId="5">
+    <tableColumn id="9" xr3:uid="{80EB9D07-1FE1-4C36-89EB-4BFB293D3A96}" name="Recuperação" dataDxfId="1">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(D2&lt;=1,D2&gt;=0.95),"Muito Alta",AND(D2&lt;0.95,D2&gt;=0.9),"Alta",AND(D2&lt;0.9,D2&gt;=0.7),"Boa",AND(D2&lt;0.7,D2&gt;=0.5),"Médio",AND(D2&lt;0.5,D2&gt;=0.25),"Baixo",AND(D2&lt;0.25,D2&gt;0),"Muito Baixo",D2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3B26B576-C152-418D-BC1D-A627F1BEAA9C}" name="F1" dataDxfId="4">
+    <tableColumn id="10" xr3:uid="{3B26B576-C152-418D-BC1D-A627F1BEAA9C}" name="F1" dataDxfId="0">
       <calculatedColumnFormula array="1">_xlfn.IFS(AND(E2&lt;=1,E2&gt;=0.95),"Muito Alta",AND(E2&lt;0.95,E2&gt;=0.9),"Alta",AND(E2&lt;0.9,E2&gt;=0.7),"Boa",AND(E2&lt;0.7,E2&gt;=0.5),"Médio",AND(E2&lt;0.5,E2&gt;=0.25),"Baixo",AND(E2&lt;0.25,E2&gt;0),"Muito Baixo",E2=0,"Zero")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1550,8 +1548,8 @@
   <sheetPr codeName="Folha1"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1581,17 +1579,17 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="53">
-        <v>0.36970734596252441</v>
-      </c>
-      <c r="C2" s="54">
-        <v>0.94348752498626709</v>
-      </c>
-      <c r="D2" s="53">
-        <v>0.21402959525585169</v>
-      </c>
-      <c r="E2" s="54">
-        <v>0.93953490257263184</v>
+      <c r="B2" s="2">
+        <v>0.35874652862548828</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.94387459754943848</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.28601911664009089</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.94108527898788452</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1599,16 +1597,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>0.17031741142272949</v>
+        <v>0.1894897669553757</v>
       </c>
       <c r="C3" s="2">
-        <v>0.94987422227859497</v>
+        <v>0.94697117805480957</v>
       </c>
       <c r="D3" s="2">
-        <v>0.14651200175285339</v>
+        <v>0.16043822467327121</v>
       </c>
       <c r="E3" s="2">
-        <v>0.94573640823364258</v>
+        <v>0.94728684425354004</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -1616,16 +1614,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>0.14243344962596891</v>
+        <v>0.13930615782737729</v>
       </c>
       <c r="C4" s="2">
-        <v>0.95297080278396606</v>
+        <v>0.95355141162872314</v>
       </c>
       <c r="D4" s="2">
-        <v>0.1466262489557266</v>
+        <v>0.1571292579174042</v>
       </c>
       <c r="E4" s="2">
-        <v>0.9519379734992981</v>
+        <v>0.94883722066879272</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1633,16 +1631,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>0.16796277463436129</v>
+        <v>0.12758857011795041</v>
       </c>
       <c r="C5" s="2">
-        <v>0.9554867148399353</v>
+        <v>0.955680251121521</v>
       </c>
       <c r="D5" s="2">
-        <v>0.17481246590614319</v>
+        <v>0.14734646677970889</v>
       </c>
       <c r="E5" s="2">
-        <v>0.94418603181838989</v>
+        <v>0.95503878593444824</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1650,16 +1648,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>0.12312716245651251</v>
+        <v>0.1544281393289566</v>
       </c>
       <c r="C6" s="2">
-        <v>0.95684146881103516</v>
+        <v>0.95509964227676392</v>
       </c>
       <c r="D6" s="2">
-        <v>0.1454352289438248</v>
+        <v>0.1619170606136322</v>
       </c>
       <c r="E6" s="2">
-        <v>0.95503878593444824</v>
+        <v>0.94728684425354004</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -1667,16 +1665,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>0.1218240484595299</v>
+        <v>0.1679822504520416</v>
       </c>
       <c r="C7" s="2">
-        <v>0.95819622278213501</v>
+        <v>0.95742207765579224</v>
       </c>
       <c r="D7" s="2">
-        <v>0.1320158839225769</v>
+        <v>0.1427985280752182</v>
       </c>
       <c r="E7" s="2">
-        <v>0.95038759708404541</v>
+        <v>0.934883713722229</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1684,16 +1682,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>9.8470486700534821E-2</v>
+        <v>0.1010972559452057</v>
       </c>
       <c r="C8" s="2">
-        <v>0.96380877494812012</v>
+        <v>0.96245402097702026</v>
       </c>
       <c r="D8" s="2">
-        <v>0.12727019190788269</v>
-      </c>
-      <c r="E8" s="53">
-        <v>0.9596899151802063</v>
+        <v>0.12991207838058469</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.95658916234970093</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -1701,33 +1699,33 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>8.9918568730354309E-2</v>
+        <v>9.7843796014785767E-2</v>
       </c>
       <c r="C9" s="2">
-        <v>0.96884071826934814</v>
+        <v>0.9670988917350769</v>
       </c>
       <c r="D9" s="2">
-        <v>0.18464852869510651</v>
+        <v>0.15599386394023901</v>
       </c>
       <c r="E9" s="2">
-        <v>0.94883722066879272</v>
+        <v>0.9596899151802063</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="54">
-        <v>7.9352341592311859E-2</v>
+      <c r="B10" s="2">
+        <v>8.9436106383800507E-2</v>
       </c>
       <c r="C10" s="2">
-        <v>0.97058254480361938</v>
-      </c>
-      <c r="D10" s="54">
-        <v>0.1194941774010658</v>
+        <v>0.970195472240448</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.1528305113315582</v>
       </c>
       <c r="E10" s="2">
-        <v>0.95348834991455078</v>
+        <v>0.95038759708404541</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -1735,16 +1733,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>8.882392942905426E-2</v>
-      </c>
-      <c r="C11" s="53">
-        <v>0.97367912530899048</v>
+        <v>7.0987090468406677E-2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.97522741556167603</v>
       </c>
       <c r="D11" s="2">
-        <v>0.12614977359771731</v>
+        <v>0.23584192991256711</v>
       </c>
       <c r="E11" s="2">
-        <v>0.9596899151802063</v>
+        <v>0.95038759708404541</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -1752,7 +1750,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="45">
-        <v>0.13870543241500799</v>
+        <v>0.19363838434219299</v>
       </c>
       <c r="C12" s="45"/>
       <c r="D12" s="45"/>
@@ -1763,7 +1761,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="45">
-        <v>0.95981454849243097</v>
+        <v>0.95672333240509</v>
       </c>
       <c r="C13" s="45"/>
       <c r="D13" s="45"/>
@@ -1775,19 +1773,19 @@
       </c>
       <c r="B14" s="5">
         <f>MIN(B2:B11)</f>
-        <v>7.9352341592311859E-2</v>
+        <v>7.0987090468406677E-2</v>
       </c>
       <c r="C14" s="5">
         <f>MIN(C2:C11)</f>
-        <v>0.94348752498626709</v>
+        <v>0.94387459754943848</v>
       </c>
       <c r="D14" s="5">
         <f>MIN(D2:D11)</f>
-        <v>0.1194941774010658</v>
+        <v>0.12991207838058469</v>
       </c>
       <c r="E14" s="5">
         <f>MIN(E2:E11)</f>
-        <v>0.93953490257263184</v>
+        <v>0.934883713722229</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -1796,15 +1794,15 @@
       </c>
       <c r="B15" s="6">
         <f>MAX(B2:B11)</f>
-        <v>0.36970734596252441</v>
+        <v>0.35874652862548828</v>
       </c>
       <c r="C15" s="6">
         <f>MAX(C2:C11)</f>
-        <v>0.97367912530899048</v>
+        <v>0.97522741556167603</v>
       </c>
       <c r="D15" s="6">
         <f>MAX(D2:D11)</f>
-        <v>0.21402959525585169</v>
+        <v>0.28601911664009089</v>
       </c>
       <c r="E15" s="6">
         <f>MAX(E2:E11)</f>
@@ -1817,7 +1815,7 @@
       </c>
       <c r="B16">
         <f>INDEX($A$2:$A$11,MATCH(B14,B2:B11,0))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <f>INDEX($A$2:$A$11,MATCH(C14,C2:C11,0))</f>
@@ -1825,11 +1823,11 @@
       </c>
       <c r="D16">
         <f>INDEX($A$2:$A$11,MATCH(D14,D2:D11,0))</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <f>INDEX($A$2:$A$11,MATCH(E14,E2:E11,0))</f>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -1850,7 +1848,7 @@
       </c>
       <c r="E17">
         <f>INDEX($A$2:$A$11,MATCH(E15,E2:E11,0))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1884,7 +1882,7 @@
   <sheetPr codeName="Folha12"/>
   <dimension ref="N1:O44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
@@ -1914,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="O3" s="18">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="14:15" x14ac:dyDescent="0.35">
@@ -1922,7 +1920,7 @@
         <v>2</v>
       </c>
       <c r="O4" s="18">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="5" spans="14:15" x14ac:dyDescent="0.35">
@@ -2096,9 +2094,7 @@
   <sheetPr codeName="Folha2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
@@ -2112,9 +2108,7 @@
   <sheetPr codeName="Folha3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
-    </sheetView>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
@@ -2129,7 +2123,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F6"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2164,13 +2158,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="40">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3">
         <f>SUM(C3:E3)</f>
@@ -2186,13 +2180,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="40">
         <v>1</v>
       </c>
-      <c r="D4" s="40">
-        <v>4</v>
-      </c>
       <c r="E4" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <f t="shared" ref="F4:F5" si="0">SUM(C4:E4)</f>
@@ -2208,13 +2202,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
       </c>
       <c r="E5" s="40">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -2227,15 +2221,15 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C6">
         <f>SUM(C3:C5)</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D6">
         <f t="shared" ref="D6:E6" si="1">SUM(D3:D5)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>621</v>
+        <v>628</v>
       </c>
       <c r="F6">
         <f>SUM(F3:F5)</f>
@@ -2260,7 +2254,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D3:D4"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2308,14 +2302,14 @@
         <v>31</v>
       </c>
       <c r="B2" s="22">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="22">
         <v>0</v>
       </c>
       <c r="D2" s="23">
         <f>B2/SUM($B$2:$B$4)</f>
-        <v>0.70588235294117652</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="E2" s="25" t="str">
         <f>VLOOKUP(C2,$G$1:$H$4,2,FALSE)</f>
@@ -2329,7 +2323,7 @@
       </c>
       <c r="J2" s="18">
         <f>B2+B6+B10</f>
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="K2" s="21" t="s">
         <v>29</v>
@@ -2339,7 +2333,7 @@
       </c>
       <c r="M2" s="30">
         <f>J2/L2</f>
-        <v>0.95981452859350846</v>
+        <v>0.95672333848531688</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -2369,14 +2363,14 @@
     <row r="4" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="47"/>
       <c r="B4" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="18">
         <v>2</v>
       </c>
       <c r="D4" s="41">
         <f t="shared" si="0"/>
-        <v>0.29411764705882354</v>
+        <v>0.35294117647058826</v>
       </c>
       <c r="E4" s="26" t="str">
         <f>VLOOKUP(C4,$G$1:$H$4,2,FALSE)</f>
@@ -2402,14 +2396,14 @@
         <v>32</v>
       </c>
       <c r="B6" s="29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" s="29">
         <v>1</v>
       </c>
       <c r="D6" s="23">
         <f>B6/SUM($B$6:$B$8)</f>
-        <v>0.25</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E6" s="27" t="str">
         <f>VLOOKUP(C6,$G$1:$H$4,2,FALSE)</f>
@@ -2420,14 +2414,14 @@
     <row r="7" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="51"/>
       <c r="B7" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="18">
         <v>0</v>
       </c>
       <c r="D7" s="41">
         <f t="shared" ref="D7:D8" si="1">B7/SUM($B$6:$B$8)</f>
-        <v>6.25E-2</v>
+        <v>0</v>
       </c>
       <c r="E7" s="26" t="str">
         <f>VLOOKUP(C7,$G$1:$H$4,2,FALSE)</f>
@@ -2438,14 +2432,14 @@
     <row r="8" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="52"/>
       <c r="B8" s="18">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C8" s="18">
         <v>2</v>
       </c>
       <c r="D8" s="41">
         <f t="shared" si="1"/>
-        <v>0.6875</v>
+        <v>0.9375</v>
       </c>
       <c r="E8" s="26" t="str">
         <f>VLOOKUP(C8,$G$1:$H$4,2,FALSE)</f>
@@ -2463,14 +2457,14 @@
         <v>33</v>
       </c>
       <c r="B10" s="22">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C10" s="22">
         <v>2</v>
       </c>
       <c r="D10" s="43">
         <f>B10/SUM($B$10:$B$12)</f>
-        <v>0.98534201954397393</v>
+        <v>0.98859934853420195</v>
       </c>
       <c r="E10" s="25" t="str">
         <f>VLOOKUP(C10,$G$1:$H$4,2,FALSE)</f>
@@ -2480,14 +2474,14 @@
     <row r="11" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="48"/>
       <c r="B11" s="18">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" s="18">
         <v>0</v>
       </c>
       <c r="D11" s="42">
         <f t="shared" ref="D11:D12" si="2">B11/SUM($B$10:$B$12)</f>
-        <v>1.4657980456026058E-2</v>
+        <v>1.1400651465798045E-2</v>
       </c>
       <c r="E11" s="26" t="str">
         <f>VLOOKUP(C11,$G$1:$H$4,2,FALSE)</f>
@@ -2535,7 +2529,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2:E4"/>
+      <selection pane="topRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2591,16 +2585,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>0.97681607418856264</v>
+        <v>0.97990726429675423</v>
       </c>
       <c r="C2" s="2">
-        <v>0.54545454545454541</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="D2" s="2">
-        <v>0.70588235294117652</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="E2" s="2">
-        <v>0.61538461538461531</v>
+        <v>0.62857142857142867</v>
       </c>
       <c r="F2" s="32">
         <f>'Matriz Confusão 2'!F3</f>
@@ -2616,7 +2610,7 @@
       </c>
       <c r="I2" s="10" t="str" cm="1">
         <f t="array" ref="I2">_xlfn.IFS(AND(D2&lt;=1,D2&gt;=0.95),"Muito Alta",AND(D2&lt;0.95,D2&gt;=0.9),"Alta",AND(D2&lt;0.9,D2&gt;=0.7),"Boa",AND(D2&lt;0.7,D2&gt;=0.5),"Médio",AND(D2&lt;0.5,D2&gt;=0.25),"Baixo",AND(D2&lt;0.25,D2&gt;0),"Muito Baixo",D2=0,"Zero")</f>
-        <v>Boa</v>
+        <v>Médio</v>
       </c>
       <c r="J2" s="16" t="str" cm="1">
         <f t="array" ref="J2">_xlfn.IFS(AND(E2&lt;=1,E2&gt;=0.95),"Muito Alta",AND(E2&lt;0.95,E2&gt;=0.9),"Alta",AND(E2&lt;0.9,E2&gt;=0.7),"Boa",AND(E2&lt;0.7,E2&gt;=0.5),"Médio",AND(E2&lt;0.5,E2&gt;=0.25),"Baixo",AND(E2&lt;0.25,E2&gt;0),"Muito Baixo",E2=0,"Zero")</f>
@@ -2629,16 +2623,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>0.98145285935085003</v>
+        <v>0.97681607418856264</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2">
-        <v>0.25</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E3" s="2">
-        <v>0.4</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="F3" s="32">
         <f>'Matriz Confusão 2'!F4</f>
@@ -2654,11 +2648,11 @@
       </c>
       <c r="I3" s="10" t="str" cm="1">
         <f t="array" ref="I3">_xlfn.IFS(AND(D3&lt;=1,D3&gt;=0.95),"Muito Alta",AND(D3&lt;0.95,D3&gt;=0.9),"Alta",AND(D3&lt;0.9,D3&gt;=0.7),"Boa",AND(D3&lt;0.7,D3&gt;=0.5),"Médio",AND(D3&lt;0.5,D3&gt;=0.25),"Baixo",AND(D3&lt;0.25,D3&gt;0),"Muito Baixo",D3=0,"Zero")</f>
-        <v>Baixo</v>
+        <v>Muito Baixo</v>
       </c>
       <c r="J3" s="16" t="str" cm="1">
         <f t="array" ref="J3">_xlfn.IFS(AND(E3&lt;=1,E3&gt;=0.95),"Muito Alta",AND(E3&lt;0.95,E3&gt;=0.9),"Alta",AND(E3&lt;0.9,E3&gt;=0.7),"Boa",AND(E3&lt;0.7,E3&gt;=0.5),"Médio",AND(E3&lt;0.5,E3&gt;=0.25),"Baixo",AND(E3&lt;0.25,E3&gt;0),"Muito Baixo",E3=0,"Zero")</f>
-        <v>Baixo</v>
+        <v>Muito Baixo</v>
       </c>
       <c r="K3"/>
     </row>
@@ -2667,16 +2661,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>0.96136012364760437</v>
+        <v>0.95672333848531688</v>
       </c>
       <c r="C4" s="2">
-        <v>0.97423510466988728</v>
+        <v>0.96656050955414008</v>
       </c>
       <c r="D4" s="2">
-        <v>0.98534201954397393</v>
+        <v>0.98859934853420195</v>
       </c>
       <c r="E4" s="2">
-        <v>0.97975708502024283</v>
+        <v>0.97745571658615127</v>
       </c>
       <c r="F4" s="32">
         <f>'Matriz Confusão 2'!F5</f>
@@ -2706,19 +2700,19 @@
       </c>
       <c r="B5" s="5">
         <f>MIN(B2:B4)</f>
-        <v>0.96136012364760437</v>
+        <v>0.95672333848531688</v>
       </c>
       <c r="C5" s="5">
         <f>MIN(C2:C4)</f>
-        <v>0.54545454545454541</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="D5" s="5">
         <f>MIN(D2:D4)</f>
-        <v>0.25</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E5" s="5">
         <f>MIN(E2:E4)</f>
-        <v>0.4</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="G5" s="9">
         <f>COUNTIF(G2:G4,$K$5)</f>
@@ -2746,7 +2740,7 @@
       </c>
       <c r="B6" s="6">
         <f>MAX(B2:B4)</f>
-        <v>0.98145285935085003</v>
+        <v>0.97990726429675423</v>
       </c>
       <c r="C6" s="6">
         <f>MAX(C2:C4)</f>
@@ -2754,11 +2748,11 @@
       </c>
       <c r="D6" s="6">
         <f>MAX(D2:D4)</f>
-        <v>0.98534201954397393</v>
+        <v>0.98859934853420195</v>
       </c>
       <c r="E6" s="6">
         <f>MAX(E2:E4)</f>
-        <v>0.97975708502024283</v>
+        <v>0.97745571658615127</v>
       </c>
       <c r="G6" s="9">
         <f>COUNTIF(G2:G4,$K$6)</f>
@@ -2810,7 +2804,7 @@
       </c>
       <c r="I7" s="9">
         <f>COUNTIF(I2:I4,$K$7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="9">
         <f>COUNTIF(J2:J4,$K$7)</f>
@@ -2850,7 +2844,7 @@
       </c>
       <c r="I8" s="9">
         <f>COUNTIF(I2:I4,$K$8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="9">
         <f>COUNTIF(J2:J4,$K$8)</f>
@@ -2890,11 +2884,11 @@
       </c>
       <c r="I9" s="9">
         <f>COUNTIF(I2:I4,$K$9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="9">
         <f>COUNTIF(J2:J4,$K$9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="35" t="s">
         <v>18</v>
@@ -2906,7 +2900,7 @@
       </c>
       <c r="B10" s="6">
         <f>INDEX($A$2:$A$4,MATCH(B6,B2:B4,0))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="6">
         <f>INDEX($A$2:$A$4,MATCH(C6,C2:C4,0))</f>
@@ -2931,11 +2925,11 @@
       </c>
       <c r="I10" s="9">
         <f>COUNTIF(I2:I4,$K$10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="9">
         <f>COUNTIF(J2:J4,$K$10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="35" t="s">
         <v>20</v>

--- a/Resultados/Material/ResNet/Tentativa 2.xlsx
+++ b/Resultados/Material/ResNet/Tentativa 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\Material\ResNet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E35BC9F-6FDB-4A5E-8C8E-9F0FBC6A6D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A399B3-AF6E-40E8-82F9-1FB5E998447D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="4" activeTab="10" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -1548,8 +1548,8 @@
   <sheetPr codeName="Folha1"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1882,7 +1882,7 @@
   <sheetPr codeName="Folha12"/>
   <dimension ref="N1:O44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
@@ -2094,7 +2094,7 @@
   <sheetPr codeName="Folha2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
@@ -2254,7 +2254,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2262,15 +2262,16 @@
     <col min="1" max="1" width="8.6328125" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.6328125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.90625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.54296875" customWidth="1"/>
     <col min="7" max="7" width="6.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1796875" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.7265625" style="9"/>
     <col min="10" max="10" width="3.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.6328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.36328125" style="9" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
@@ -2529,25 +2530,25 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D3" sqref="D3"/>
+      <selection pane="topRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.54296875" style="33" customWidth="1"/>
     <col min="7" max="7" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="105.1796875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>30</v>
       </c>
@@ -2580,7 +2581,7 @@
       </c>
       <c r="K1"/>
     </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15">
         <v>0</v>
       </c>
@@ -2618,7 +2619,7 @@
       </c>
       <c r="K2"/>
     </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -2656,7 +2657,7 @@
       </c>
       <c r="K3"/>
     </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
         <v>2</v>
       </c>
@@ -2694,7 +2695,7 @@
       </c>
       <c r="K4"/>
     </row>
-    <row r="5" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2734,7 +2735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
@@ -2774,7 +2775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>0</v>
       </c>
@@ -2814,7 +2815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>1</v>
       </c>
@@ -2854,7 +2855,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
@@ -2894,7 +2895,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
@@ -2935,7 +2936,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="G11">
         <f>SUM(G5:G10)+B7</f>
